--- a/Shiny/Dati/Scelta_Fibra.xlsx
+++ b/Shiny/Dati/Scelta_Fibra.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\Desktop\Nuova cartella\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\GitHub\DoE_en\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3B289-2D55-4DEF-AC65-48CEBC6E5A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C46678-E0DF-4B9C-9C58-EE6252C8608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>A</t>
   </si>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -687,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3FAA94-ACBD-4B68-892D-8B11B589AC92}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,29 +910,100 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="20">
+        <v>50</v>
+      </c>
+      <c r="B11" s="20">
+        <v>5</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
       <c r="G11" s="15">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>50</v>
+      </c>
+      <c r="B12" s="20">
+        <v>5</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
       <c r="G12" s="15">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>50</v>
+      </c>
+      <c r="B13" s="20">
+        <v>5</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
       <c r="G13" s="15">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>50</v>
+      </c>
+      <c r="B14" s="20">
+        <v>5</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
       <c r="G14" s="15">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
